--- a/module/2_clustering/cluster_tendency_group.xlsx
+++ b/module/2_clustering/cluster_tendency_group.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3336763021725765</v>
+        <v>0.3343888437669311</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2669758537412551</v>
+        <v>0.2734771545559989</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1561459779618948</v>
+        <v>0.1562662242689815</v>
       </c>
       <c r="E2" t="n">
-        <v>0.182948667276677</v>
+        <v>0.1824767350398486</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2218037287756659</v>
+        <v>0.2255153597781922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3719171793347311</v>
+        <v>0.3622618851958203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1056493233656896</v>
+        <v>0.1056640174611092</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1470926231228184</v>
+        <v>0.1458084038641811</v>
       </c>
     </row>
   </sheetData>
